--- a/tpFinal/sample_data.xlsx
+++ b/tpFinal/sample_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>Corrida 5</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Corrida 6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Corrida 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -467,83 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>2991</v>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>2808</v>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>2680</v>
       </c>
       <c r="E2" t="n">
-        <v>45</v>
+        <v>2882</v>
       </c>
       <c r="F2" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>LATERAL</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>FALTA</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>CAMBIO</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+        <v>2945</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3032</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2939</v>
       </c>
     </row>
   </sheetData>

--- a/tpFinal/sample_data.xlsx
+++ b/tpFinal/sample_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,68 +434,56 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Corrida 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Corrida 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Corrida 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Corrida 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Corrida 5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Corrida 6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Corrida 7</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>TIEMPO PERDIDO</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2991</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2808</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2680</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2882</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2945</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3032</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2939</v>
+        <v>75.68788484170454</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>80.81705581830647</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>73.00209014642223</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>85.64739699961501</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>81.30045656783932</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>79.11825324108759</v>
       </c>
     </row>
   </sheetData>
